--- a/Benchmarks-results/Prometheus/matrix multiplication wykresy/matrixmul 2 GPU MAX LWS.xlsx
+++ b/Benchmarks-results/Prometheus/matrix multiplication wykresy/matrixmul 2 GPU MAX LWS.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$G$8:$L$56</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>GWS[0] = 16 384</t>
   </si>
@@ -97,14 +100,27 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>max temp 1 GPU</t>
+  </si>
+  <si>
+    <t>min temp 1 GPU</t>
+  </si>
+  <si>
+    <t>min temp 2 GPU</t>
+  </si>
+  <si>
+    <t>max temp 2 GPU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -143,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -155,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -452,7 +469,7 @@
   <dimension ref="A2:AY282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A26" sqref="A26:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,6 +478,7 @@
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
@@ -738,18 +756,16 @@
     </row>
     <row r="11" spans="1:51">
       <c r="A11">
-        <v>16384</v>
-      </c>
-      <c r="B11" s="3">
-        <v>23.965330705</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE(I9,I11,I13,I15,I17,I19,I21,I23,I25,I27,I29,I31,I33,I35,I37,I39,I41,I43,I45,I47,I49,I51,I53,I55)</f>
-        <v>116.41666666666667</v>
+        <v>1024</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.44495499399999999</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14</v>
       </c>
       <c r="D11">
-        <f>AVERAGE(I10,I12,I14,I16,I18,I20,I22,I24,I26,I28,I30,I32,I34,I36,I38,I40,I42,I44,I46,I48,I50,I52,I54,I56)</f>
-        <v>128.04166666666666</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
@@ -813,18 +829,16 @@
     </row>
     <row r="12" spans="1:51">
       <c r="A12">
-        <v>8192</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4.2717994389999996</v>
+        <v>2048</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.54441450700000005</v>
       </c>
       <c r="C12" s="5">
-        <f>AVERAGE(R11,R13,R15,R17,R19)</f>
-        <v>83.2</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <f>AVERAGE(R12,R14,R16,R18,R20)</f>
-        <v>83.8</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -890,7 +904,7 @@
       <c r="A13">
         <v>4096</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>1.1879971579999999</v>
       </c>
       <c r="C13" s="5">
@@ -945,16 +959,17 @@
     </row>
     <row r="14" spans="1:51">
       <c r="A14">
-        <v>2048</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.54441450700000005</v>
-      </c>
-      <c r="C14" s="5">
-        <v>14</v>
+        <v>8192</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.2717994389999996</v>
+      </c>
+      <c r="C14">
+        <v>83</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <f>AVERAGE(R12,R14,R16,R18,R20)</f>
+        <v>83.8</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
@@ -1000,16 +1015,18 @@
     </row>
     <row r="15" spans="1:51">
       <c r="A15">
-        <v>1024</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.44495499399999999</v>
-      </c>
-      <c r="C15" s="5">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
+        <v>16384</v>
+      </c>
+      <c r="B15" s="7">
+        <v>23.965330705</v>
+      </c>
+      <c r="C15" s="7">
+        <f>AVERAGE(I9,I11,I13,I15,I17,I19,I21,I23,I25,I27,I29,I31,I33,I35,I37,I39,I41,I43,I45,I47,I49,I51,I53,I55)</f>
+        <v>116.41666666666667</v>
+      </c>
+      <c r="D15" s="7">
+        <f>AVERAGE(I10,I12,I14,I16,I18,I20,I22,I24,I26,I28,I30,I32,I34,I36,I38,I40,I42,I44,I46,I48,I50,I52,I54,I56)</f>
+        <v>128.04166666666666</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
@@ -1093,7 +1110,7 @@
       <c r="Y16" s="4"/>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="1:25">
       <c r="B17" s="3"/>
       <c r="G17" s="4">
         <v>0.6051157407407407</v>
@@ -1133,7 +1150,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="1:25">
       <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>24</v>
@@ -1182,18 +1199,18 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="2:25">
-      <c r="C19">
+    <row r="19" spans="1:25">
+      <c r="C19" s="7">
         <f>C11*B11</f>
-        <v>2789.9639162404169</v>
-      </c>
-      <c r="D19">
+        <v>6.2293699159999996</v>
+      </c>
+      <c r="D19" s="7">
         <f>D11*B11</f>
-        <v>3068.5608856860413</v>
+        <v>6.2293699159999996</v>
       </c>
       <c r="E19">
         <f>D19+C19</f>
-        <v>5858.5248019264582</v>
+        <v>12.458739831999999</v>
       </c>
       <c r="G19" s="4">
         <v>0.60512731481481474</v>
@@ -1233,70 +1250,70 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="1:25">
       <c r="B20" s="5"/>
-      <c r="C20">
-        <f>C13*B13</f>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:C22" si="0">C12*B12</f>
+        <v>7.6218030980000009</v>
+      </c>
+      <c r="D20" s="7">
+        <f>D12*B12</f>
+        <v>7.6218030980000009</v>
+      </c>
+      <c r="E20">
+        <f>D20+C20</f>
+        <v>15.243606196000002</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.60512731481481474</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>324</v>
+      </c>
+      <c r="L20">
+        <v>324</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.43440972222222224</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>140</v>
+      </c>
+      <c r="S20">
+        <v>40</v>
+      </c>
+      <c r="T20">
+        <v>3004</v>
+      </c>
+      <c r="U20">
+        <v>928</v>
+      </c>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
         <v>77.219815269999998</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="7">
         <f>D13*B13</f>
         <v>83.753799638999993</v>
       </c>
-      <c r="E20">
-        <f>D20+C20</f>
+      <c r="E21" s="7">
+        <f>D21+C21</f>
         <v>160.97361490899999</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.60512731481481474</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>15</v>
-      </c>
-      <c r="J20">
-        <v>38</v>
-      </c>
-      <c r="K20">
-        <v>324</v>
-      </c>
-      <c r="L20">
-        <v>324</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0.43440972222222224</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>140</v>
-      </c>
-      <c r="S20">
-        <v>40</v>
-      </c>
-      <c r="T20">
-        <v>3004</v>
-      </c>
-      <c r="U20">
-        <v>928</v>
-      </c>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="2:25">
-      <c r="C21">
-        <f>C14*B14</f>
-        <v>7.6218030980000009</v>
-      </c>
-      <c r="D21">
-        <f>D14*B14</f>
-        <v>7.6218030980000009</v>
-      </c>
-      <c r="E21">
-        <f>D21+C21</f>
-        <v>15.243606196000002</v>
       </c>
       <c r="G21" s="4">
         <v>0.60513888888888889</v>
@@ -1319,18 +1336,18 @@
       <c r="P21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="2:25">
-      <c r="C22">
-        <f>C15*B15</f>
-        <v>6.2293699159999996</v>
-      </c>
-      <c r="D22">
-        <f>D15*B15</f>
-        <v>6.2293699159999996</v>
+    <row r="22" spans="1:25">
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>354.55935343699997</v>
+      </c>
+      <c r="D22" s="7">
+        <f>D14*B14</f>
+        <v>357.97679298819997</v>
       </c>
       <c r="E22">
         <f>D22+C22</f>
-        <v>12.458739831999999</v>
+        <v>712.53614642519995</v>
       </c>
       <c r="G22" s="4">
         <v>0.60513888888888889</v>
@@ -1353,7 +1370,19 @@
       <c r="P22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="1:25">
+      <c r="C23" s="7">
+        <f>C15*B15</f>
+        <v>2789.9639162404169</v>
+      </c>
+      <c r="D23" s="7">
+        <f>D15*B15</f>
+        <v>3068.5608856860413</v>
+      </c>
+      <c r="E23">
+        <f>D23+C23</f>
+        <v>5858.5248019264582</v>
+      </c>
       <c r="G23" s="4">
         <v>0.60515046296296293</v>
       </c>
@@ -1375,7 +1404,7 @@
       <c r="P23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="1:25">
       <c r="G24" s="4">
         <v>0.60515046296296293</v>
       </c>
@@ -1397,7 +1426,7 @@
       <c r="P24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="1:25">
       <c r="G25" s="4">
         <v>0.60516203703703708</v>
       </c>
@@ -1419,7 +1448,22 @@
       <c r="P25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="1:25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="4">
         <v>0.60516203703703708</v>
       </c>
@@ -1441,7 +1485,26 @@
       <c r="P26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="1:25">
+      <c r="A27">
+        <v>4096</v>
+      </c>
+      <c r="B27">
+        <f>MIN(AB9,AB11)</f>
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <f>MAX(AB9,AB11)</f>
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <f>MIN(AB10,AB12)</f>
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <f>MAX(AB10,AB12)</f>
+        <v>36</v>
+      </c>
       <c r="G27" s="4">
         <v>0.60517361111111112</v>
       </c>
@@ -1463,7 +1526,26 @@
       <c r="P27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="1:25">
+      <c r="A28">
+        <v>8192</v>
+      </c>
+      <c r="B28">
+        <f>MIN(S11,S13,S15,S17,S19)</f>
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <f>MAX(S11,S13,S15,S17,S19)</f>
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <f>MIN(S12,S14,S16,S18,S20)</f>
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <f>MAX(S12,S14,S16,S18,S20)</f>
+        <v>40</v>
+      </c>
       <c r="G28" s="4">
         <v>0.60517361111111112</v>
       </c>
@@ -1485,7 +1567,26 @@
       <c r="P28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="2:25">
+    <row r="29" spans="1:25">
+      <c r="A29">
+        <v>16384</v>
+      </c>
+      <c r="B29">
+        <f>MIN(J9,J11,J13,J15,J17,J19,J21,J23,J25,J27,J29,J31,J33,J35,J37,J39,J41,J43,J45,J47,J49,J51,J53,J55)</f>
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <f>MAX(J9,J11,J13,J15,J17,J19,J21,J23,J25,J27,J29,J31,J33,J35,J37,J39,J41,J43,J45,J47,J49,J51,J53,J55)</f>
+        <v>81</v>
+      </c>
+      <c r="D29">
+        <f>MIN(J10,J12,J14,J16,J18,J20,J22,J24,J26,J28,J30,J32,J34,J36,J38,J40,J42,J44,J46,J48,J50,J52,J54,J56)</f>
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <f>MAX(J10,J12,J14,J16,J18,J20,J22,J24,J26,J28,J30,J32,J34,J36,J38,J40,J42,J44,J46,J48,J50,J52,J54,J56)</f>
+        <v>52</v>
+      </c>
       <c r="G29" s="4">
         <v>0.60518518518518516</v>
       </c>
@@ -1507,7 +1608,7 @@
       <c r="P29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="1:25">
       <c r="G30" s="4">
         <v>0.60518518518518516</v>
       </c>
@@ -1529,7 +1630,7 @@
       <c r="P30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="1:25">
       <c r="G31" s="4">
         <v>0.6051967592592592</v>
       </c>
@@ -1551,7 +1652,7 @@
       <c r="P31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="2:25">
+    <row r="32" spans="1:25">
       <c r="G32" s="4">
         <v>0.6051967592592592</v>
       </c>
@@ -2772,6 +2873,9 @@
       <c r="P282" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A11:E15">
+    <sortCondition descending="1" ref="A11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
